--- a/CRM/Source/CRM.WebApi/Templates/file.Xlsx
+++ b/CRM/Source/CRM.WebApi/Templates/file.Xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8020"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,11 +16,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>FullName</t>
   </si>
   <si>
+    <t>CompanyName</t>
+  </si>
+  <si>
     <t>Position</t>
   </si>
   <si>
@@ -30,37 +33,82 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Araqel Movsisyan</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
-    <t>Armenia</t>
-  </si>
-  <si>
-    <t>France</t>
-  </si>
-  <si>
-    <t>Aram Asatryan</t>
-  </si>
-  <si>
-    <t>Edjmiatsin</t>
-  </si>
-  <si>
-    <t>aram@gusan.am</t>
-  </si>
-  <si>
-    <t>CompanyName</t>
-  </si>
-  <si>
-    <t>AJ</t>
-  </si>
-  <si>
-    <t>Toxmax</t>
-  </si>
-  <si>
-    <t>notvalidmail</t>
+    <t>Name14</t>
+  </si>
+  <si>
+    <t>Name15</t>
+  </si>
+  <si>
+    <t>Company11</t>
+  </si>
+  <si>
+    <t>Company12</t>
+  </si>
+  <si>
+    <t>Company14</t>
+  </si>
+  <si>
+    <t>Company15</t>
+  </si>
+  <si>
+    <t>Company16</t>
+  </si>
+  <si>
+    <t>Position11</t>
+  </si>
+  <si>
+    <t>Position12</t>
+  </si>
+  <si>
+    <t>Position13</t>
+  </si>
+  <si>
+    <t>Position14</t>
+  </si>
+  <si>
+    <t>Position15</t>
+  </si>
+  <si>
+    <t>Country11</t>
+  </si>
+  <si>
+    <t>Country12</t>
+  </si>
+  <si>
+    <t>Country13</t>
+  </si>
+  <si>
+    <t>Country14</t>
+  </si>
+  <si>
+    <t>Country15</t>
+  </si>
+  <si>
+    <t>Country16</t>
+  </si>
+  <si>
+    <t>samplemail35yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail36yandex.ru</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>samplemail3002yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail32223yandex.ru</t>
+  </si>
+  <si>
+    <t>samplemail</t>
+  </si>
+  <si>
+    <t>samplemail33337yandex.ru</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -405,69 +453,150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.54296875" customWidth="1"/>
+    <col min="2" max="2" width="17.90625" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
+    <col min="4" max="4" width="23.453125" customWidth="1"/>
+    <col min="5" max="5" width="34.90625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>553</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="beno@couper.fr"/>
-    <hyperlink ref="E3" r:id="rId2"/>
+    <hyperlink ref="E2" r:id="rId1" display="aram1@yandex.ru"/>
+    <hyperlink ref="E3:E11" r:id="rId2" display="aram1@yandex.ru"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
